--- a/Documentation/Dictionnaires/Dictionnaire_Fonctions.xlsx
+++ b/Documentation/Dictionnaires/Dictionnaire_Fonctions.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
   <si>
     <t>Dictionnaire fait par Michaël</t>
   </si>
@@ -115,6 +115,18 @@
   <si>
     <t>Permet de valider le numero de camisole. Ce chiffre doit pouvoir être montré avec les doigts de la main.
 (1 à 15 - 20 à 25 - 30 à 35 - 40 à 45 - 50 -55)</t>
+  </si>
+  <si>
+    <t>FORMAT_HEURE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> heure in NUMBER</t>
+  </si>
+  <si>
+    <t>VARCHAR2</t>
+  </si>
+  <si>
+    <t>Permet de formater l'heure.</t>
   </si>
 </sst>
 </file>
@@ -362,34 +374,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -406,23 +391,38 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="8">
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -531,6 +531,18 @@
         <bottom style="medium">
           <color indexed="64"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -547,14 +559,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A4:E10" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="6" tableBorderDxfId="7">
-  <autoFilter ref="A4:E10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A4:E11" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="5" tableBorderDxfId="6">
+  <autoFilter ref="A4:E11"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Nom" dataDxfId="5"/>
-    <tableColumn id="2" name="Paramètres" dataDxfId="4"/>
-    <tableColumn id="3" name="Retourne" dataDxfId="3"/>
-    <tableColumn id="4" name="Description" dataDxfId="2"/>
-    <tableColumn id="5" name="Auteur" dataDxfId="1"/>
+    <tableColumn id="1" name="Nom" dataDxfId="4"/>
+    <tableColumn id="2" name="Paramètres" dataDxfId="3"/>
+    <tableColumn id="3" name="Retourne" dataDxfId="2"/>
+    <tableColumn id="4" name="Description" dataDxfId="1"/>
+    <tableColumn id="5" name="Auteur" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -823,10 +835,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -839,68 +851,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="5"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="18"/>
     </row>
     <row r="2" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="8"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="21"/>
     </row>
     <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="12"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="24"/>
     </row>
     <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="11" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -912,12 +924,12 @@
       <c r="D6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="8" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -929,12 +941,12 @@
       <c r="D7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="8" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -946,12 +958,12 @@
       <c r="D8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="E8" s="8" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -963,25 +975,42 @@
       <c r="D9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="24" t="s">
+      <c r="E10" s="15" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
